--- a/text/images/TechEval.xlsx
+++ b/text/images/TechEval.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Tabelle1!$A$1:$E$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Tabelle1!$A$1:$E$15</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>FxCop</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Für C# und VB.net?</t>
   </si>
   <si>
-    <t>Für Code und Kompilat?</t>
-  </si>
-  <si>
     <t>Ja</t>
   </si>
   <si>
@@ -70,6 +67,12 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Für Code?</t>
+  </si>
+  <si>
+    <t>Für Assembly?</t>
   </si>
 </sst>
 </file>
@@ -156,8 +159,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:E10" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:E10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabelle1" displayName="Tabelle1" ref="A1:E11" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:E11"/>
   <tableColumns count="5">
     <tableColumn id="1" name=" "/>
     <tableColumn id="2" name="FxCop" dataDxfId="3"/>
@@ -459,10 +462,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,7 +476,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -499,10 +502,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -626,42 +629,59 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B10" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C10" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
         <v>0</v>
       </c>
     </row>
